--- a/DualBand.xlsx
+++ b/DualBand.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="14265"/>
   </bookViews>
   <sheets>
     <sheet name="DualBand" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="75">
   <si>
     <t>Id</t>
   </si>
@@ -39,22 +39,25 @@
     <t>Supplier and ref</t>
   </si>
   <si>
-    <t>C1,C12,C13,C16,C18,C19,C22,C23</t>
-  </si>
-  <si>
     <t>C_0603</t>
   </si>
   <si>
+    <t>C2,C6,C7,C8,C10,C11,C13,C15,C16,C17,C18,C20,C21</t>
+  </si>
+  <si>
     <t>1u</t>
   </si>
   <si>
-    <t>C3,C5,C14,C15,C17,C20,C21,C24,C25</t>
+    <t>C3,C5,C9,C12,C14,C19,C22</t>
   </si>
   <si>
     <t>0.01u</t>
   </si>
   <si>
-    <t>C26</t>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>10u</t>
   </si>
   <si>
     <t>0.1u</t>
@@ -69,7 +72,25 @@
     <t>SMS7630-061</t>
   </si>
   <si>
-    <t>J1</t>
+    <t>J1,J2,J4</t>
+  </si>
+  <si>
+    <t>Pin_Header_Straight_1x03_Pitch2.54mm</t>
+  </si>
+  <si>
+    <t>Conn_01x03_Male</t>
+  </si>
+  <si>
+    <t>J3,J6</t>
+  </si>
+  <si>
+    <t>Pin_Header_Straight_1x10_Pitch2.54mm</t>
+  </si>
+  <si>
+    <t>Conn_01x10_Male</t>
+  </si>
+  <si>
+    <t>J5</t>
   </si>
   <si>
     <t>Pin_Header_Straight_1x02_Pitch2.54mm</t>
@@ -78,16 +99,7 @@
     <t>Conn_01x02_Male</t>
   </si>
   <si>
-    <t>J2,J5,J7</t>
-  </si>
-  <si>
-    <t>Pin_Header_Straight_1x03_Pitch2.54mm</t>
-  </si>
-  <si>
-    <t>Conn_01x03_Male</t>
-  </si>
-  <si>
-    <t>J3</t>
+    <t>J7</t>
   </si>
   <si>
     <t>Pin_Header_Straight_1x01_Pitch2.54mm</t>
@@ -96,16 +108,7 @@
     <t>Conn_01x01_Male</t>
   </si>
   <si>
-    <t>J4,J6</t>
-  </si>
-  <si>
-    <t>Pin_Header_Straight_1x10_Pitch2.54mm</t>
-  </si>
-  <si>
-    <t>Conn_01x10_Male</t>
-  </si>
-  <si>
-    <t>P2</t>
+    <t>P1</t>
   </si>
   <si>
     <t>TSSOP-14_4.4x5mm_Pitch0.65mm</t>
@@ -114,51 +117,69 @@
     <t>AD8402ARUZ1</t>
   </si>
   <si>
-    <t>R1</t>
+    <t>R1,R2,R17,R19,R27</t>
   </si>
   <si>
     <t>R_0603</t>
   </si>
   <si>
-    <t>12k</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>78.7k</t>
-  </si>
-  <si>
-    <t>R3,R4,R5,R6,R15</t>
-  </si>
-  <si>
     <t>10k</t>
   </si>
   <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>3.9k</t>
+  </si>
+  <si>
+    <t>1k</t>
+  </si>
+  <si>
+    <t>R5,R6</t>
+  </si>
+  <si>
+    <t>510k</t>
+  </si>
+  <si>
     <t>R7</t>
   </si>
   <si>
-    <t>3k</t>
-  </si>
-  <si>
-    <t>R8</t>
-  </si>
-  <si>
-    <t>R9</t>
-  </si>
-  <si>
-    <t>R10,R13</t>
-  </si>
-  <si>
-    <t>R11</t>
-  </si>
-  <si>
-    <t>R12</t>
+    <t>1.3k</t>
+  </si>
+  <si>
+    <t>R10,R11</t>
+  </si>
+  <si>
+    <t>R12,R13</t>
+  </si>
+  <si>
+    <t>24k</t>
   </si>
   <si>
     <t>R14</t>
   </si>
   <si>
+    <t>R15,R16</t>
+  </si>
+  <si>
+    <t>R18,R25</t>
+  </si>
+  <si>
+    <t>R22</t>
+  </si>
+  <si>
+    <t>R23</t>
+  </si>
+  <si>
+    <t>2.4k</t>
+  </si>
+  <si>
+    <t>R24</t>
+  </si>
+  <si>
+    <t>R26</t>
+  </si>
+  <si>
     <t>SW1</t>
   </si>
   <si>
@@ -171,43 +192,58 @@
     <t>U1</t>
   </si>
   <si>
+    <t>TO-220-3_Vertical</t>
+  </si>
+  <si>
+    <t>LD1117V33</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>TSSOP-20_4.4x6.5mm_Pitch0.65mm</t>
+  </si>
+  <si>
+    <t>MSP430FR2311IPW20R</t>
+  </si>
+  <si>
+    <t>U3,U4,U5,U6</t>
+  </si>
+  <si>
     <t>SOIC-8_3.9x4.9mm_Pitch1.27mm</t>
   </si>
   <si>
-    <t>LM7322QMAX/NOPB</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>TSSOP-20_4.4x6.5mm_Pitch0.65mm</t>
-  </si>
-  <si>
-    <t>MSP430FR2311IPW20R</t>
-  </si>
-  <si>
-    <t>U3,U4</t>
-  </si>
-  <si>
     <t>LMH6703MA/NOPB</t>
   </si>
   <si>
-    <t>https://www.mouser.com/Search/ProductDetail.aspx?R=LM7322QMAX%2fNOPBvirtualkey59500000virtualkey595-LM7322QMAX%2fNOPB</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/Search/ProductDetail.aspx?R=LMH6703MA%2fNOPBvirtualkey59500000virtualkey926-LMH6703MA%2fNOPB</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/Search/ProductDetail.aspx?R=MSP430FR2311IPW20Rvirtualkey59510000virtualkey595-P430FR2311IPW20R</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/Search/ProductDetail.aspx?R=FSM2JSMAATRvirtualkey50660000virtualkey506-FSM2JSMAATR</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/Search/ProductDetail.aspx?R=AD8402ARUZ1virtualkey58430000virtualkey584-AD8402ARUZ1</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/Search/ProductDetail.aspx?R=SMS7630-061virtualkey59540000virtualkey873-SMS7630-061</t>
+    <t>https://www.mouser.com/ProductDetail/TE-Connectivity/FSM2JSMAATR/?qs=%2fha2pyFaduhLcywUk1qP%2fXWcvvcc26wpyQR0hGeCY06TU5b3vGxz2g%3d%3d</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/STMicroelectronics/LD1117V33/?qs=sGAEpiMZZMsGz1a6aV8DcCz10aAT%252bcfyfixmM%2fM6hTA%3d</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Texas-Instruments/MSP430FR2311IPW20R/?qs=sGAEpiMZZMsp%252bcahb6g%252bWwUUqJyJs2gcEK8924aIzUVM%252bWhaNT%252bE%2fQ%3d%3d</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Texas-Instruments/LMH6703MA-NOPB/?qs=sGAEpiMZZMtCHixnSjNA6M%252bbBaCn4IWbaybpip1ej9c%3d</t>
+  </si>
+  <si>
+    <t>R4,R20,R21,R8,R9</t>
+  </si>
+  <si>
+    <t>C1,C23</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Skyworks/SMS7630-061/?qs=%2fha2pyFaduhksNdaBNN8uZ%252bhynGJdCluKEV8xAQ4rswuJBmpAZDa0w%3d%3d</t>
+  </si>
+  <si>
+    <t>In house</t>
+  </si>
+  <si>
+    <t>Owned</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Analog-Devices/AD8402ARUZ1/?qs=sGAEpiMZZMuD%2f7PTYBwKqdeb0s0H1yW0d5zIOO3Xcjg%3d</t>
   </si>
 </sst>
 </file>
@@ -700,19 +736,16 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1069,470 +1102,587 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="35.140625" customWidth="1"/>
-    <col min="3" max="3" width="49" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" customWidth="1"/>
+    <col min="3" max="3" width="39.140625" customWidth="1"/>
     <col min="5" max="5" width="27.42578125" customWidth="1"/>
-    <col min="6" max="6" width="33.42578125" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2">
-        <v>8</v>
+      <c r="D2">
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="F2" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
         <v>7</v>
-      </c>
-      <c r="D3" s="2">
-        <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F3" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2">
+        <v>6</v>
+      </c>
+      <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F4" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="2">
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6">
         <v>1</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16">
         <v>1</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="2">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="2">
-        <v>2</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="2">
-        <v>5</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="E16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1">
-        <v>250</v>
-      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="2">
+        <v>33</v>
+      </c>
+      <c r="D17">
         <v>2</v>
       </c>
       <c r="E17" s="1">
-        <v>100</v>
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="2">
+        <v>33</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19">
         <v>1</v>
       </c>
-      <c r="E18" s="1">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="E19" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>820</v>
+      </c>
+      <c r="F20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>100</v>
+      </c>
+      <c r="F21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22">
         <v>1</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E22" s="1">
         <v>287</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23">
         <v>1</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E23" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>470</v>
+      </c>
+      <c r="F24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
         <v>220</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="2">
+      <c r="F25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26">
         <v>1</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="E26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="2">
+      <c r="D28">
         <v>1</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="2">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="2">
-        <v>2</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E27" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" t="s">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F22" r:id="rId1"/>
-    <hyperlink ref="F23" r:id="rId2"/>
-    <hyperlink ref="F10" r:id="rId3"/>
-    <hyperlink ref="F5" r:id="rId4"/>
+    <hyperlink ref="F11" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId2"/>
 </worksheet>
 </file>